--- a/PhoenixCI/Excel_Template/30204.xlsx
+++ b/PhoenixCI/Excel_Template/30204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8110EDE0-C756-45DA-980E-5249386C13E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE39C6B7-8D30-4D6B-8A08-FD6F3D836DAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="股價指數暨黃金類交易人部位限制標準調整一欄表" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -817,7 +816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,7 +841,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -869,7 +868,7 @@
     <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -896,6 +895,9 @@
     <xf numFmtId="178" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -905,7 +907,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23697,14 +23699,14 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="13"/>
@@ -23713,14 +23715,14 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
@@ -23801,14 +23803,14 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="13"/>
@@ -23817,14 +23819,14 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13"/>
@@ -23905,14 +23907,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="13"/>
@@ -23921,14 +23923,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="13"/>
@@ -24009,14 +24011,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="13"/>
@@ -24025,14 +24027,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="13"/>
@@ -24113,14 +24115,14 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="13"/>
@@ -24129,14 +24131,14 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="13"/>
@@ -24217,14 +24219,14 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="13"/>
@@ -24233,14 +24235,14 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="13"/>
@@ -24321,14 +24323,14 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="13"/>
@@ -24337,14 +24339,14 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="13"/>
@@ -24425,14 +24427,14 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="13"/>
@@ -24441,14 +24443,14 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="13"/>
@@ -24529,14 +24531,14 @@
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="13"/>
@@ -24545,14 +24547,14 @@
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="13"/>
@@ -24633,14 +24635,14 @@
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="26"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="13"/>
@@ -24649,14 +24651,14 @@
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="27"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="13"/>
@@ -24737,14 +24739,14 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="13"/>
@@ -24753,14 +24755,14 @@
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="13"/>
@@ -24841,14 +24843,14 @@
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="13"/>
@@ -24857,14 +24859,14 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="13"/>
@@ -24945,14 +24947,14 @@
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="26"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="13"/>
@@ -24961,14 +24963,14 @@
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="13"/>
@@ -25049,14 +25051,14 @@
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="26"/>
-      <c r="M137" s="26"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="26"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+      <c r="O137" s="27"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="13"/>
@@ -25065,14 +25067,14 @@
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="13"/>
@@ -25153,14 +25155,14 @@
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
-      <c r="H147" s="26"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="26"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="26"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="27"/>
+      <c r="O147" s="27"/>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="13"/>
@@ -25169,14 +25171,14 @@
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
-      <c r="H148" s="26"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="26"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="26"/>
-      <c r="N148" s="26"/>
-      <c r="O148" s="26"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="27"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="13"/>
@@ -25257,14 +25259,14 @@
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="26"/>
-      <c r="M157" s="26"/>
-      <c r="N157" s="26"/>
-      <c r="O157" s="26"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="27"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="13"/>
@@ -25273,14 +25275,14 @@
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26"/>
-      <c r="K158" s="26"/>
-      <c r="L158" s="26"/>
-      <c r="M158" s="26"/>
-      <c r="N158" s="26"/>
-      <c r="O158" s="26"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="27"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="13"/>
@@ -25361,14 +25363,14 @@
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="26"/>
-      <c r="L167" s="26"/>
-      <c r="M167" s="26"/>
-      <c r="N167" s="26"/>
-      <c r="O167" s="26"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="27"/>
+      <c r="N167" s="27"/>
+      <c r="O167" s="27"/>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="13"/>
@@ -25377,14 +25379,14 @@
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="26"/>
-      <c r="L168" s="26"/>
-      <c r="M168" s="26"/>
-      <c r="N168" s="26"/>
-      <c r="O168" s="26"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="13"/>
@@ -25465,14 +25467,14 @@
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="26"/>
-      <c r="L177" s="26"/>
-      <c r="M177" s="26"/>
-      <c r="N177" s="26"/>
-      <c r="O177" s="26"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="13"/>
@@ -25481,14 +25483,14 @@
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
-      <c r="L178" s="26"/>
-      <c r="M178" s="26"/>
-      <c r="N178" s="26"/>
-      <c r="O178" s="26"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="27"/>
+      <c r="N178" s="27"/>
+      <c r="O178" s="27"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="13"/>
@@ -25569,14 +25571,14 @@
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="26"/>
-      <c r="L187" s="26"/>
-      <c r="M187" s="26"/>
-      <c r="N187" s="26"/>
-      <c r="O187" s="26"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="27"/>
+      <c r="M187" s="27"/>
+      <c r="N187" s="27"/>
+      <c r="O187" s="27"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="13"/>
@@ -25585,14 +25587,14 @@
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="26"/>
-      <c r="L188" s="26"/>
-      <c r="M188" s="26"/>
-      <c r="N188" s="26"/>
-      <c r="O188" s="26"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="27"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="13"/>
@@ -25673,14 +25675,14 @@
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="26"/>
-      <c r="M197" s="26"/>
-      <c r="N197" s="26"/>
-      <c r="O197" s="26"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+      <c r="L197" s="27"/>
+      <c r="M197" s="27"/>
+      <c r="N197" s="27"/>
+      <c r="O197" s="27"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="13"/>
@@ -25689,14 +25691,14 @@
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="26"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="26"/>
-      <c r="M198" s="26"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="26"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
+      <c r="K198" s="27"/>
+      <c r="L198" s="27"/>
+      <c r="M198" s="27"/>
+      <c r="N198" s="27"/>
+      <c r="O198" s="27"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="13"/>
@@ -25777,14 +25779,14 @@
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
-      <c r="H207" s="26"/>
-      <c r="I207" s="26"/>
-      <c r="J207" s="26"/>
-      <c r="K207" s="26"/>
-      <c r="L207" s="26"/>
-      <c r="M207" s="26"/>
-      <c r="N207" s="26"/>
-      <c r="O207" s="26"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="27"/>
+      <c r="K207" s="27"/>
+      <c r="L207" s="27"/>
+      <c r="M207" s="27"/>
+      <c r="N207" s="27"/>
+      <c r="O207" s="27"/>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="13"/>
@@ -25793,14 +25795,14 @@
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
-      <c r="H208" s="26"/>
-      <c r="I208" s="26"/>
-      <c r="J208" s="26"/>
-      <c r="K208" s="26"/>
-      <c r="L208" s="26"/>
-      <c r="M208" s="26"/>
-      <c r="N208" s="26"/>
-      <c r="O208" s="26"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
+      <c r="K208" s="27"/>
+      <c r="L208" s="27"/>
+      <c r="M208" s="27"/>
+      <c r="N208" s="27"/>
+      <c r="O208" s="27"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="13"/>
@@ -25881,14 +25883,14 @@
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="26"/>
-      <c r="L217" s="26"/>
-      <c r="M217" s="26"/>
-      <c r="N217" s="26"/>
-      <c r="O217" s="26"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="13"/>
@@ -25897,14 +25899,14 @@
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
-      <c r="J218" s="26"/>
-      <c r="K218" s="26"/>
-      <c r="L218" s="26"/>
-      <c r="M218" s="26"/>
-      <c r="N218" s="26"/>
-      <c r="O218" s="26"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
+      <c r="K218" s="27"/>
+      <c r="L218" s="27"/>
+      <c r="M218" s="27"/>
+      <c r="N218" s="27"/>
+      <c r="O218" s="27"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="13"/>
@@ -25985,14 +25987,14 @@
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
       <c r="F227" s="16"/>
-      <c r="H227" s="26"/>
-      <c r="I227" s="26"/>
-      <c r="J227" s="26"/>
-      <c r="K227" s="26"/>
-      <c r="L227" s="26"/>
-      <c r="M227" s="26"/>
-      <c r="N227" s="26"/>
-      <c r="O227" s="26"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
+      <c r="K227" s="27"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="27"/>
+      <c r="N227" s="27"/>
+      <c r="O227" s="27"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="13"/>
@@ -26001,14 +26003,14 @@
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
-      <c r="J228" s="26"/>
-      <c r="K228" s="26"/>
-      <c r="L228" s="26"/>
-      <c r="M228" s="26"/>
-      <c r="N228" s="26"/>
-      <c r="O228" s="26"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+      <c r="K228" s="27"/>
+      <c r="L228" s="27"/>
+      <c r="M228" s="27"/>
+      <c r="N228" s="27"/>
+      <c r="O228" s="27"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="13"/>
@@ -26089,14 +26091,14 @@
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
-      <c r="H237" s="26"/>
-      <c r="I237" s="26"/>
-      <c r="J237" s="26"/>
-      <c r="K237" s="26"/>
-      <c r="L237" s="26"/>
-      <c r="M237" s="26"/>
-      <c r="N237" s="26"/>
-      <c r="O237" s="26"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+      <c r="K237" s="27"/>
+      <c r="L237" s="27"/>
+      <c r="M237" s="27"/>
+      <c r="N237" s="27"/>
+      <c r="O237" s="27"/>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="13"/>
@@ -26105,14 +26107,14 @@
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
-      <c r="H238" s="26"/>
-      <c r="I238" s="26"/>
-      <c r="J238" s="26"/>
-      <c r="K238" s="26"/>
-      <c r="L238" s="26"/>
-      <c r="M238" s="26"/>
-      <c r="N238" s="26"/>
-      <c r="O238" s="26"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
+      <c r="K238" s="27"/>
+      <c r="L238" s="27"/>
+      <c r="M238" s="27"/>
+      <c r="N238" s="27"/>
+      <c r="O238" s="27"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="13"/>
@@ -26193,14 +26195,14 @@
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="26"/>
-      <c r="L247" s="26"/>
-      <c r="M247" s="26"/>
-      <c r="N247" s="26"/>
-      <c r="O247" s="26"/>
+      <c r="H247" s="27"/>
+      <c r="I247" s="27"/>
+      <c r="J247" s="27"/>
+      <c r="K247" s="27"/>
+      <c r="L247" s="27"/>
+      <c r="M247" s="27"/>
+      <c r="N247" s="27"/>
+      <c r="O247" s="27"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="13"/>
@@ -26209,14 +26211,14 @@
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
       <c r="F248" s="16"/>
-      <c r="H248" s="26"/>
-      <c r="I248" s="26"/>
-      <c r="J248" s="26"/>
-      <c r="K248" s="26"/>
-      <c r="L248" s="26"/>
-      <c r="M248" s="26"/>
-      <c r="N248" s="26"/>
-      <c r="O248" s="26"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="27"/>
+      <c r="J248" s="27"/>
+      <c r="K248" s="27"/>
+      <c r="L248" s="27"/>
+      <c r="M248" s="27"/>
+      <c r="N248" s="27"/>
+      <c r="O248" s="27"/>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="13"/>
@@ -26297,14 +26299,14 @@
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
       <c r="F257" s="16"/>
-      <c r="H257" s="26"/>
-      <c r="I257" s="26"/>
-      <c r="J257" s="26"/>
-      <c r="K257" s="26"/>
-      <c r="L257" s="26"/>
-      <c r="M257" s="26"/>
-      <c r="N257" s="26"/>
-      <c r="O257" s="26"/>
+      <c r="H257" s="27"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="27"/>
+      <c r="K257" s="27"/>
+      <c r="L257" s="27"/>
+      <c r="M257" s="27"/>
+      <c r="N257" s="27"/>
+      <c r="O257" s="27"/>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="13"/>
@@ -26313,14 +26315,14 @@
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
       <c r="F258" s="16"/>
-      <c r="H258" s="26"/>
-      <c r="I258" s="26"/>
-      <c r="J258" s="26"/>
-      <c r="K258" s="26"/>
-      <c r="L258" s="26"/>
-      <c r="M258" s="26"/>
-      <c r="N258" s="26"/>
-      <c r="O258" s="26"/>
+      <c r="H258" s="27"/>
+      <c r="I258" s="27"/>
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+      <c r="L258" s="27"/>
+      <c r="M258" s="27"/>
+      <c r="N258" s="27"/>
+      <c r="O258" s="27"/>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="13"/>
@@ -26401,14 +26403,14 @@
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
       <c r="F267" s="16"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="M267" s="26"/>
-      <c r="N267" s="26"/>
-      <c r="O267" s="26"/>
+      <c r="H267" s="27"/>
+      <c r="I267" s="27"/>
+      <c r="J267" s="27"/>
+      <c r="K267" s="27"/>
+      <c r="L267" s="27"/>
+      <c r="M267" s="27"/>
+      <c r="N267" s="27"/>
+      <c r="O267" s="27"/>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="13"/>
@@ -26417,14 +26419,14 @@
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
       <c r="F268" s="16"/>
-      <c r="H268" s="26"/>
-      <c r="I268" s="26"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="26"/>
-      <c r="L268" s="26"/>
-      <c r="M268" s="26"/>
-      <c r="N268" s="26"/>
-      <c r="O268" s="26"/>
+      <c r="H268" s="27"/>
+      <c r="I268" s="27"/>
+      <c r="J268" s="27"/>
+      <c r="K268" s="27"/>
+      <c r="L268" s="27"/>
+      <c r="M268" s="27"/>
+      <c r="N268" s="27"/>
+      <c r="O268" s="27"/>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="13"/>
@@ -26505,14 +26507,14 @@
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
       <c r="F277" s="16"/>
-      <c r="H277" s="26"/>
-      <c r="I277" s="26"/>
-      <c r="J277" s="26"/>
-      <c r="K277" s="26"/>
-      <c r="L277" s="26"/>
-      <c r="M277" s="26"/>
-      <c r="N277" s="26"/>
-      <c r="O277" s="26"/>
+      <c r="H277" s="27"/>
+      <c r="I277" s="27"/>
+      <c r="J277" s="27"/>
+      <c r="K277" s="27"/>
+      <c r="L277" s="27"/>
+      <c r="M277" s="27"/>
+      <c r="N277" s="27"/>
+      <c r="O277" s="27"/>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="13"/>
@@ -26521,14 +26523,14 @@
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
       <c r="F278" s="16"/>
-      <c r="H278" s="26"/>
-      <c r="I278" s="26"/>
-      <c r="J278" s="26"/>
-      <c r="K278" s="26"/>
-      <c r="L278" s="26"/>
-      <c r="M278" s="26"/>
-      <c r="N278" s="26"/>
-      <c r="O278" s="26"/>
+      <c r="H278" s="27"/>
+      <c r="I278" s="27"/>
+      <c r="J278" s="27"/>
+      <c r="K278" s="27"/>
+      <c r="L278" s="27"/>
+      <c r="M278" s="27"/>
+      <c r="N278" s="27"/>
+      <c r="O278" s="27"/>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="13"/>
@@ -26609,14 +26611,14 @@
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
       <c r="F287" s="16"/>
-      <c r="H287" s="26"/>
-      <c r="I287" s="26"/>
-      <c r="J287" s="26"/>
-      <c r="K287" s="26"/>
-      <c r="L287" s="26"/>
-      <c r="M287" s="26"/>
-      <c r="N287" s="26"/>
-      <c r="O287" s="26"/>
+      <c r="H287" s="27"/>
+      <c r="I287" s="27"/>
+      <c r="J287" s="27"/>
+      <c r="K287" s="27"/>
+      <c r="L287" s="27"/>
+      <c r="M287" s="27"/>
+      <c r="N287" s="27"/>
+      <c r="O287" s="27"/>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="13"/>
@@ -26625,14 +26627,14 @@
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
       <c r="F288" s="16"/>
-      <c r="H288" s="26"/>
-      <c r="I288" s="26"/>
-      <c r="J288" s="26"/>
-      <c r="K288" s="26"/>
-      <c r="L288" s="26"/>
-      <c r="M288" s="26"/>
-      <c r="N288" s="26"/>
-      <c r="O288" s="26"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="27"/>
+      <c r="J288" s="27"/>
+      <c r="K288" s="27"/>
+      <c r="L288" s="27"/>
+      <c r="M288" s="27"/>
+      <c r="N288" s="27"/>
+      <c r="O288" s="27"/>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="13"/>
@@ -26713,14 +26715,14 @@
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
       <c r="F297" s="16"/>
-      <c r="H297" s="26"/>
-      <c r="I297" s="26"/>
-      <c r="J297" s="26"/>
-      <c r="K297" s="26"/>
-      <c r="L297" s="26"/>
-      <c r="M297" s="26"/>
-      <c r="N297" s="26"/>
-      <c r="O297" s="26"/>
+      <c r="H297" s="27"/>
+      <c r="I297" s="27"/>
+      <c r="J297" s="27"/>
+      <c r="K297" s="27"/>
+      <c r="L297" s="27"/>
+      <c r="M297" s="27"/>
+      <c r="N297" s="27"/>
+      <c r="O297" s="27"/>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="13"/>
@@ -26729,14 +26731,14 @@
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
       <c r="F298" s="16"/>
-      <c r="H298" s="26"/>
-      <c r="I298" s="26"/>
-      <c r="J298" s="26"/>
-      <c r="K298" s="26"/>
-      <c r="L298" s="26"/>
-      <c r="M298" s="26"/>
-      <c r="N298" s="26"/>
-      <c r="O298" s="26"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27"/>
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="27"/>
+      <c r="M298" s="27"/>
+      <c r="N298" s="27"/>
+      <c r="O298" s="27"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="13"/>
@@ -26817,14 +26819,14 @@
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
       <c r="F307" s="16"/>
-      <c r="H307" s="26"/>
-      <c r="I307" s="26"/>
-      <c r="J307" s="26"/>
-      <c r="K307" s="26"/>
-      <c r="L307" s="26"/>
-      <c r="M307" s="26"/>
-      <c r="N307" s="26"/>
-      <c r="O307" s="26"/>
+      <c r="H307" s="27"/>
+      <c r="I307" s="27"/>
+      <c r="J307" s="27"/>
+      <c r="K307" s="27"/>
+      <c r="L307" s="27"/>
+      <c r="M307" s="27"/>
+      <c r="N307" s="27"/>
+      <c r="O307" s="27"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="13"/>
@@ -26833,14 +26835,14 @@
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
       <c r="F308" s="16"/>
-      <c r="H308" s="26"/>
-      <c r="I308" s="26"/>
-      <c r="J308" s="26"/>
-      <c r="K308" s="26"/>
-      <c r="L308" s="26"/>
-      <c r="M308" s="26"/>
-      <c r="N308" s="26"/>
-      <c r="O308" s="26"/>
+      <c r="H308" s="27"/>
+      <c r="I308" s="27"/>
+      <c r="J308" s="27"/>
+      <c r="K308" s="27"/>
+      <c r="L308" s="27"/>
+      <c r="M308" s="27"/>
+      <c r="N308" s="27"/>
+      <c r="O308" s="27"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="13"/>
@@ -26921,14 +26923,14 @@
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
       <c r="F317" s="16"/>
-      <c r="H317" s="26"/>
-      <c r="I317" s="26"/>
-      <c r="J317" s="26"/>
-      <c r="K317" s="26"/>
-      <c r="L317" s="26"/>
-      <c r="M317" s="26"/>
-      <c r="N317" s="26"/>
-      <c r="O317" s="26"/>
+      <c r="H317" s="27"/>
+      <c r="I317" s="27"/>
+      <c r="J317" s="27"/>
+      <c r="K317" s="27"/>
+      <c r="L317" s="27"/>
+      <c r="M317" s="27"/>
+      <c r="N317" s="27"/>
+      <c r="O317" s="27"/>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="13"/>
@@ -26937,14 +26939,14 @@
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
       <c r="F318" s="16"/>
-      <c r="H318" s="26"/>
-      <c r="I318" s="26"/>
-      <c r="J318" s="26"/>
-      <c r="K318" s="26"/>
-      <c r="L318" s="26"/>
-      <c r="M318" s="26"/>
-      <c r="N318" s="26"/>
-      <c r="O318" s="26"/>
+      <c r="H318" s="27"/>
+      <c r="I318" s="27"/>
+      <c r="J318" s="27"/>
+      <c r="K318" s="27"/>
+      <c r="L318" s="27"/>
+      <c r="M318" s="27"/>
+      <c r="N318" s="27"/>
+      <c r="O318" s="27"/>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="13"/>
@@ -27025,14 +27027,14 @@
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
       <c r="F327" s="16"/>
-      <c r="H327" s="26"/>
-      <c r="I327" s="26"/>
-      <c r="J327" s="26"/>
-      <c r="K327" s="26"/>
-      <c r="L327" s="26"/>
-      <c r="M327" s="26"/>
-      <c r="N327" s="26"/>
-      <c r="O327" s="26"/>
+      <c r="H327" s="27"/>
+      <c r="I327" s="27"/>
+      <c r="J327" s="27"/>
+      <c r="K327" s="27"/>
+      <c r="L327" s="27"/>
+      <c r="M327" s="27"/>
+      <c r="N327" s="27"/>
+      <c r="O327" s="27"/>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="13"/>
@@ -27041,14 +27043,14 @@
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
       <c r="F328" s="16"/>
-      <c r="H328" s="26"/>
-      <c r="I328" s="26"/>
-      <c r="J328" s="26"/>
-      <c r="K328" s="26"/>
-      <c r="L328" s="26"/>
-      <c r="M328" s="26"/>
-      <c r="N328" s="26"/>
-      <c r="O328" s="26"/>
+      <c r="H328" s="27"/>
+      <c r="I328" s="27"/>
+      <c r="J328" s="27"/>
+      <c r="K328" s="27"/>
+      <c r="L328" s="27"/>
+      <c r="M328" s="27"/>
+      <c r="N328" s="27"/>
+      <c r="O328" s="27"/>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="13"/>
@@ -27129,14 +27131,14 @@
       <c r="D337" s="16"/>
       <c r="E337" s="16"/>
       <c r="F337" s="16"/>
-      <c r="H337" s="26"/>
-      <c r="I337" s="26"/>
-      <c r="J337" s="26"/>
-      <c r="K337" s="26"/>
-      <c r="L337" s="26"/>
-      <c r="M337" s="26"/>
-      <c r="N337" s="26"/>
-      <c r="O337" s="26"/>
+      <c r="H337" s="27"/>
+      <c r="I337" s="27"/>
+      <c r="J337" s="27"/>
+      <c r="K337" s="27"/>
+      <c r="L337" s="27"/>
+      <c r="M337" s="27"/>
+      <c r="N337" s="27"/>
+      <c r="O337" s="27"/>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="13"/>
@@ -27145,14 +27147,14 @@
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
-      <c r="H338" s="26"/>
-      <c r="I338" s="26"/>
-      <c r="J338" s="26"/>
-      <c r="K338" s="26"/>
-      <c r="L338" s="26"/>
-      <c r="M338" s="26"/>
-      <c r="N338" s="26"/>
-      <c r="O338" s="26"/>
+      <c r="H338" s="27"/>
+      <c r="I338" s="27"/>
+      <c r="J338" s="27"/>
+      <c r="K338" s="27"/>
+      <c r="L338" s="27"/>
+      <c r="M338" s="27"/>
+      <c r="N338" s="27"/>
+      <c r="O338" s="27"/>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="13"/>
@@ -27233,14 +27235,14 @@
       <c r="D347" s="16"/>
       <c r="E347" s="16"/>
       <c r="F347" s="16"/>
-      <c r="H347" s="26"/>
-      <c r="I347" s="26"/>
-      <c r="J347" s="26"/>
-      <c r="K347" s="26"/>
-      <c r="L347" s="26"/>
-      <c r="M347" s="26"/>
-      <c r="N347" s="26"/>
-      <c r="O347" s="26"/>
+      <c r="H347" s="27"/>
+      <c r="I347" s="27"/>
+      <c r="J347" s="27"/>
+      <c r="K347" s="27"/>
+      <c r="L347" s="27"/>
+      <c r="M347" s="27"/>
+      <c r="N347" s="27"/>
+      <c r="O347" s="27"/>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="13"/>
@@ -27249,14 +27251,14 @@
       <c r="D348" s="16"/>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
-      <c r="H348" s="26"/>
-      <c r="I348" s="26"/>
-      <c r="J348" s="26"/>
-      <c r="K348" s="26"/>
-      <c r="L348" s="26"/>
-      <c r="M348" s="26"/>
-      <c r="N348" s="26"/>
-      <c r="O348" s="26"/>
+      <c r="H348" s="27"/>
+      <c r="I348" s="27"/>
+      <c r="J348" s="27"/>
+      <c r="K348" s="27"/>
+      <c r="L348" s="27"/>
+      <c r="M348" s="27"/>
+      <c r="N348" s="27"/>
+      <c r="O348" s="27"/>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="13"/>
@@ -27337,14 +27339,14 @@
       <c r="D357" s="16"/>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
-      <c r="H357" s="26"/>
-      <c r="I357" s="26"/>
-      <c r="J357" s="26"/>
-      <c r="K357" s="26"/>
-      <c r="L357" s="26"/>
-      <c r="M357" s="26"/>
-      <c r="N357" s="26"/>
-      <c r="O357" s="26"/>
+      <c r="H357" s="27"/>
+      <c r="I357" s="27"/>
+      <c r="J357" s="27"/>
+      <c r="K357" s="27"/>
+      <c r="L357" s="27"/>
+      <c r="M357" s="27"/>
+      <c r="N357" s="27"/>
+      <c r="O357" s="27"/>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="13"/>
@@ -27353,14 +27355,14 @@
       <c r="D358" s="16"/>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
-      <c r="H358" s="26"/>
-      <c r="I358" s="26"/>
-      <c r="J358" s="26"/>
-      <c r="K358" s="26"/>
-      <c r="L358" s="26"/>
-      <c r="M358" s="26"/>
-      <c r="N358" s="26"/>
-      <c r="O358" s="26"/>
+      <c r="H358" s="27"/>
+      <c r="I358" s="27"/>
+      <c r="J358" s="27"/>
+      <c r="K358" s="27"/>
+      <c r="L358" s="27"/>
+      <c r="M358" s="27"/>
+      <c r="N358" s="27"/>
+      <c r="O358" s="27"/>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="13"/>
@@ -27441,14 +27443,14 @@
       <c r="D367" s="16"/>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
-      <c r="H367" s="26"/>
-      <c r="I367" s="26"/>
-      <c r="J367" s="26"/>
-      <c r="K367" s="26"/>
-      <c r="L367" s="26"/>
-      <c r="M367" s="26"/>
-      <c r="N367" s="26"/>
-      <c r="O367" s="26"/>
+      <c r="H367" s="27"/>
+      <c r="I367" s="27"/>
+      <c r="J367" s="27"/>
+      <c r="K367" s="27"/>
+      <c r="L367" s="27"/>
+      <c r="M367" s="27"/>
+      <c r="N367" s="27"/>
+      <c r="O367" s="27"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="13"/>
@@ -27457,14 +27459,14 @@
       <c r="D368" s="16"/>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
-      <c r="H368" s="26"/>
-      <c r="I368" s="26"/>
-      <c r="J368" s="26"/>
-      <c r="K368" s="26"/>
-      <c r="L368" s="26"/>
-      <c r="M368" s="26"/>
-      <c r="N368" s="26"/>
-      <c r="O368" s="26"/>
+      <c r="H368" s="27"/>
+      <c r="I368" s="27"/>
+      <c r="J368" s="27"/>
+      <c r="K368" s="27"/>
+      <c r="L368" s="27"/>
+      <c r="M368" s="27"/>
+      <c r="N368" s="27"/>
+      <c r="O368" s="27"/>
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="13"/>
@@ -27545,14 +27547,14 @@
       <c r="D377" s="16"/>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
-      <c r="H377" s="26"/>
-      <c r="I377" s="26"/>
-      <c r="J377" s="26"/>
-      <c r="K377" s="26"/>
-      <c r="L377" s="26"/>
-      <c r="M377" s="26"/>
-      <c r="N377" s="26"/>
-      <c r="O377" s="26"/>
+      <c r="H377" s="27"/>
+      <c r="I377" s="27"/>
+      <c r="J377" s="27"/>
+      <c r="K377" s="27"/>
+      <c r="L377" s="27"/>
+      <c r="M377" s="27"/>
+      <c r="N377" s="27"/>
+      <c r="O377" s="27"/>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="13"/>
@@ -27561,14 +27563,14 @@
       <c r="D378" s="16"/>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
-      <c r="H378" s="26"/>
-      <c r="I378" s="26"/>
-      <c r="J378" s="26"/>
-      <c r="K378" s="26"/>
-      <c r="L378" s="26"/>
-      <c r="M378" s="26"/>
-      <c r="N378" s="26"/>
-      <c r="O378" s="26"/>
+      <c r="H378" s="27"/>
+      <c r="I378" s="27"/>
+      <c r="J378" s="27"/>
+      <c r="K378" s="27"/>
+      <c r="L378" s="27"/>
+      <c r="M378" s="27"/>
+      <c r="N378" s="27"/>
+      <c r="O378" s="27"/>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="13"/>
@@ -27649,14 +27651,14 @@
       <c r="D387" s="16"/>
       <c r="E387" s="16"/>
       <c r="F387" s="16"/>
-      <c r="H387" s="26"/>
-      <c r="I387" s="26"/>
-      <c r="J387" s="26"/>
-      <c r="K387" s="26"/>
-      <c r="L387" s="26"/>
-      <c r="M387" s="26"/>
-      <c r="N387" s="26"/>
-      <c r="O387" s="26"/>
+      <c r="H387" s="27"/>
+      <c r="I387" s="27"/>
+      <c r="J387" s="27"/>
+      <c r="K387" s="27"/>
+      <c r="L387" s="27"/>
+      <c r="M387" s="27"/>
+      <c r="N387" s="27"/>
+      <c r="O387" s="27"/>
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="13"/>
@@ -27665,14 +27667,14 @@
       <c r="D388" s="16"/>
       <c r="E388" s="16"/>
       <c r="F388" s="16"/>
-      <c r="H388" s="26"/>
-      <c r="I388" s="26"/>
-      <c r="J388" s="26"/>
-      <c r="K388" s="26"/>
-      <c r="L388" s="26"/>
-      <c r="M388" s="26"/>
-      <c r="N388" s="26"/>
-      <c r="O388" s="26"/>
+      <c r="H388" s="27"/>
+      <c r="I388" s="27"/>
+      <c r="J388" s="27"/>
+      <c r="K388" s="27"/>
+      <c r="L388" s="27"/>
+      <c r="M388" s="27"/>
+      <c r="N388" s="27"/>
+      <c r="O388" s="27"/>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="13"/>
@@ -27753,14 +27755,14 @@
       <c r="D397" s="16"/>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
-      <c r="H397" s="26"/>
-      <c r="I397" s="26"/>
-      <c r="J397" s="26"/>
-      <c r="K397" s="26"/>
-      <c r="L397" s="26"/>
-      <c r="M397" s="26"/>
-      <c r="N397" s="26"/>
-      <c r="O397" s="26"/>
+      <c r="H397" s="27"/>
+      <c r="I397" s="27"/>
+      <c r="J397" s="27"/>
+      <c r="K397" s="27"/>
+      <c r="L397" s="27"/>
+      <c r="M397" s="27"/>
+      <c r="N397" s="27"/>
+      <c r="O397" s="27"/>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="13"/>
@@ -27769,14 +27771,14 @@
       <c r="D398" s="16"/>
       <c r="E398" s="16"/>
       <c r="F398" s="16"/>
-      <c r="H398" s="26"/>
-      <c r="I398" s="26"/>
-      <c r="J398" s="26"/>
-      <c r="K398" s="26"/>
-      <c r="L398" s="26"/>
-      <c r="M398" s="26"/>
-      <c r="N398" s="26"/>
-      <c r="O398" s="26"/>
+      <c r="H398" s="27"/>
+      <c r="I398" s="27"/>
+      <c r="J398" s="27"/>
+      <c r="K398" s="27"/>
+      <c r="L398" s="27"/>
+      <c r="M398" s="27"/>
+      <c r="N398" s="27"/>
+      <c r="O398" s="27"/>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="13"/>
@@ -27857,14 +27859,14 @@
       <c r="D407" s="16"/>
       <c r="E407" s="16"/>
       <c r="F407" s="16"/>
-      <c r="H407" s="26"/>
-      <c r="I407" s="26"/>
-      <c r="J407" s="26"/>
-      <c r="K407" s="26"/>
-      <c r="L407" s="26"/>
-      <c r="M407" s="26"/>
-      <c r="N407" s="26"/>
-      <c r="O407" s="26"/>
+      <c r="H407" s="27"/>
+      <c r="I407" s="27"/>
+      <c r="J407" s="27"/>
+      <c r="K407" s="27"/>
+      <c r="L407" s="27"/>
+      <c r="M407" s="27"/>
+      <c r="N407" s="27"/>
+      <c r="O407" s="27"/>
     </row>
     <row r="408" spans="1:15">
       <c r="A408" s="13"/>
@@ -27873,14 +27875,14 @@
       <c r="D408" s="16"/>
       <c r="E408" s="16"/>
       <c r="F408" s="16"/>
-      <c r="H408" s="26"/>
-      <c r="I408" s="26"/>
-      <c r="J408" s="26"/>
-      <c r="K408" s="26"/>
-      <c r="L408" s="26"/>
-      <c r="M408" s="26"/>
-      <c r="N408" s="26"/>
-      <c r="O408" s="26"/>
+      <c r="H408" s="27"/>
+      <c r="I408" s="27"/>
+      <c r="J408" s="27"/>
+      <c r="K408" s="27"/>
+      <c r="L408" s="27"/>
+      <c r="M408" s="27"/>
+      <c r="N408" s="27"/>
+      <c r="O408" s="27"/>
     </row>
     <row r="409" spans="1:15">
       <c r="A409" s="13"/>
@@ -27961,14 +27963,14 @@
       <c r="D417" s="16"/>
       <c r="E417" s="16"/>
       <c r="F417" s="16"/>
-      <c r="H417" s="26"/>
-      <c r="I417" s="26"/>
-      <c r="J417" s="26"/>
-      <c r="K417" s="26"/>
-      <c r="L417" s="26"/>
-      <c r="M417" s="26"/>
-      <c r="N417" s="26"/>
-      <c r="O417" s="26"/>
+      <c r="H417" s="27"/>
+      <c r="I417" s="27"/>
+      <c r="J417" s="27"/>
+      <c r="K417" s="27"/>
+      <c r="L417" s="27"/>
+      <c r="M417" s="27"/>
+      <c r="N417" s="27"/>
+      <c r="O417" s="27"/>
     </row>
     <row r="418" spans="1:15">
       <c r="A418" s="13"/>
@@ -27977,14 +27979,14 @@
       <c r="D418" s="16"/>
       <c r="E418" s="16"/>
       <c r="F418" s="16"/>
-      <c r="H418" s="26"/>
-      <c r="I418" s="26"/>
-      <c r="J418" s="26"/>
-      <c r="K418" s="26"/>
-      <c r="L418" s="26"/>
-      <c r="M418" s="26"/>
-      <c r="N418" s="26"/>
-      <c r="O418" s="26"/>
+      <c r="H418" s="27"/>
+      <c r="I418" s="27"/>
+      <c r="J418" s="27"/>
+      <c r="K418" s="27"/>
+      <c r="L418" s="27"/>
+      <c r="M418" s="27"/>
+      <c r="N418" s="27"/>
+      <c r="O418" s="27"/>
     </row>
     <row r="419" spans="1:15">
       <c r="A419" s="13"/>
@@ -28065,14 +28067,14 @@
       <c r="D427" s="16"/>
       <c r="E427" s="16"/>
       <c r="F427" s="16"/>
-      <c r="H427" s="26"/>
-      <c r="I427" s="26"/>
-      <c r="J427" s="26"/>
-      <c r="K427" s="26"/>
-      <c r="L427" s="26"/>
-      <c r="M427" s="26"/>
-      <c r="N427" s="26"/>
-      <c r="O427" s="26"/>
+      <c r="H427" s="27"/>
+      <c r="I427" s="27"/>
+      <c r="J427" s="27"/>
+      <c r="K427" s="27"/>
+      <c r="L427" s="27"/>
+      <c r="M427" s="27"/>
+      <c r="N427" s="27"/>
+      <c r="O427" s="27"/>
     </row>
     <row r="428" spans="1:15">
       <c r="A428" s="13"/>
@@ -28081,14 +28083,14 @@
       <c r="D428" s="16"/>
       <c r="E428" s="16"/>
       <c r="F428" s="16"/>
-      <c r="H428" s="26"/>
-      <c r="I428" s="26"/>
-      <c r="J428" s="26"/>
-      <c r="K428" s="26"/>
-      <c r="L428" s="26"/>
-      <c r="M428" s="26"/>
-      <c r="N428" s="26"/>
-      <c r="O428" s="26"/>
+      <c r="H428" s="27"/>
+      <c r="I428" s="27"/>
+      <c r="J428" s="27"/>
+      <c r="K428" s="27"/>
+      <c r="L428" s="27"/>
+      <c r="M428" s="27"/>
+      <c r="N428" s="27"/>
+      <c r="O428" s="27"/>
     </row>
     <row r="429" spans="1:15">
       <c r="A429" s="13"/>
@@ -28169,14 +28171,14 @@
       <c r="D437" s="16"/>
       <c r="E437" s="16"/>
       <c r="F437" s="16"/>
-      <c r="H437" s="26"/>
-      <c r="I437" s="26"/>
-      <c r="J437" s="26"/>
-      <c r="K437" s="26"/>
-      <c r="L437" s="26"/>
-      <c r="M437" s="26"/>
-      <c r="N437" s="26"/>
-      <c r="O437" s="26"/>
+      <c r="H437" s="27"/>
+      <c r="I437" s="27"/>
+      <c r="J437" s="27"/>
+      <c r="K437" s="27"/>
+      <c r="L437" s="27"/>
+      <c r="M437" s="27"/>
+      <c r="N437" s="27"/>
+      <c r="O437" s="27"/>
     </row>
     <row r="438" spans="1:15">
       <c r="A438" s="13"/>
@@ -28185,14 +28187,14 @@
       <c r="D438" s="16"/>
       <c r="E438" s="16"/>
       <c r="F438" s="16"/>
-      <c r="H438" s="26"/>
-      <c r="I438" s="26"/>
-      <c r="J438" s="26"/>
-      <c r="K438" s="26"/>
-      <c r="L438" s="26"/>
-      <c r="M438" s="26"/>
-      <c r="N438" s="26"/>
-      <c r="O438" s="26"/>
+      <c r="H438" s="27"/>
+      <c r="I438" s="27"/>
+      <c r="J438" s="27"/>
+      <c r="K438" s="27"/>
+      <c r="L438" s="27"/>
+      <c r="M438" s="27"/>
+      <c r="N438" s="27"/>
+      <c r="O438" s="27"/>
     </row>
     <row r="439" spans="1:15">
       <c r="A439" s="13"/>
@@ -28273,14 +28275,14 @@
       <c r="D447" s="16"/>
       <c r="E447" s="16"/>
       <c r="F447" s="16"/>
-      <c r="H447" s="26"/>
-      <c r="I447" s="26"/>
-      <c r="J447" s="26"/>
-      <c r="K447" s="26"/>
-      <c r="L447" s="26"/>
-      <c r="M447" s="26"/>
-      <c r="N447" s="26"/>
-      <c r="O447" s="26"/>
+      <c r="H447" s="27"/>
+      <c r="I447" s="27"/>
+      <c r="J447" s="27"/>
+      <c r="K447" s="27"/>
+      <c r="L447" s="27"/>
+      <c r="M447" s="27"/>
+      <c r="N447" s="27"/>
+      <c r="O447" s="27"/>
     </row>
     <row r="448" spans="1:15">
       <c r="A448" s="13"/>
@@ -28289,14 +28291,14 @@
       <c r="D448" s="16"/>
       <c r="E448" s="16"/>
       <c r="F448" s="16"/>
-      <c r="H448" s="26"/>
-      <c r="I448" s="26"/>
-      <c r="J448" s="26"/>
-      <c r="K448" s="26"/>
-      <c r="L448" s="26"/>
-      <c r="M448" s="26"/>
-      <c r="N448" s="26"/>
-      <c r="O448" s="26"/>
+      <c r="H448" s="27"/>
+      <c r="I448" s="27"/>
+      <c r="J448" s="27"/>
+      <c r="K448" s="27"/>
+      <c r="L448" s="27"/>
+      <c r="M448" s="27"/>
+      <c r="N448" s="27"/>
+      <c r="O448" s="27"/>
     </row>
     <row r="449" spans="1:15">
       <c r="A449" s="13"/>
@@ -28377,14 +28379,14 @@
       <c r="D457" s="16"/>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
-      <c r="H457" s="26"/>
-      <c r="I457" s="26"/>
-      <c r="J457" s="26"/>
-      <c r="K457" s="26"/>
-      <c r="L457" s="26"/>
-      <c r="M457" s="26"/>
-      <c r="N457" s="26"/>
-      <c r="O457" s="26"/>
+      <c r="H457" s="27"/>
+      <c r="I457" s="27"/>
+      <c r="J457" s="27"/>
+      <c r="K457" s="27"/>
+      <c r="L457" s="27"/>
+      <c r="M457" s="27"/>
+      <c r="N457" s="27"/>
+      <c r="O457" s="27"/>
     </row>
     <row r="458" spans="1:15">
       <c r="A458" s="13"/>
@@ -28393,14 +28395,14 @@
       <c r="D458" s="16"/>
       <c r="E458" s="16"/>
       <c r="F458" s="16"/>
-      <c r="H458" s="26"/>
-      <c r="I458" s="26"/>
-      <c r="J458" s="26"/>
-      <c r="K458" s="26"/>
-      <c r="L458" s="26"/>
-      <c r="M458" s="26"/>
-      <c r="N458" s="26"/>
-      <c r="O458" s="26"/>
+      <c r="H458" s="27"/>
+      <c r="I458" s="27"/>
+      <c r="J458" s="27"/>
+      <c r="K458" s="27"/>
+      <c r="L458" s="27"/>
+      <c r="M458" s="27"/>
+      <c r="N458" s="27"/>
+      <c r="O458" s="27"/>
     </row>
     <row r="459" spans="1:15">
       <c r="A459" s="13"/>
@@ -28481,14 +28483,14 @@
       <c r="D467" s="16"/>
       <c r="E467" s="16"/>
       <c r="F467" s="16"/>
-      <c r="H467" s="26"/>
-      <c r="I467" s="26"/>
-      <c r="J467" s="26"/>
-      <c r="K467" s="26"/>
-      <c r="L467" s="26"/>
-      <c r="M467" s="26"/>
-      <c r="N467" s="26"/>
-      <c r="O467" s="26"/>
+      <c r="H467" s="27"/>
+      <c r="I467" s="27"/>
+      <c r="J467" s="27"/>
+      <c r="K467" s="27"/>
+      <c r="L467" s="27"/>
+      <c r="M467" s="27"/>
+      <c r="N467" s="27"/>
+      <c r="O467" s="27"/>
     </row>
     <row r="468" spans="1:15">
       <c r="A468" s="13"/>
@@ -28497,14 +28499,14 @@
       <c r="D468" s="16"/>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
-      <c r="H468" s="26"/>
-      <c r="I468" s="26"/>
-      <c r="J468" s="26"/>
-      <c r="K468" s="26"/>
-      <c r="L468" s="26"/>
-      <c r="M468" s="26"/>
-      <c r="N468" s="26"/>
-      <c r="O468" s="26"/>
+      <c r="H468" s="27"/>
+      <c r="I468" s="27"/>
+      <c r="J468" s="27"/>
+      <c r="K468" s="27"/>
+      <c r="L468" s="27"/>
+      <c r="M468" s="27"/>
+      <c r="N468" s="27"/>
+      <c r="O468" s="27"/>
     </row>
     <row r="469" spans="1:15">
       <c r="A469" s="13"/>
@@ -28585,14 +28587,14 @@
       <c r="D477" s="16"/>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
-      <c r="H477" s="26"/>
-      <c r="I477" s="26"/>
-      <c r="J477" s="26"/>
-      <c r="K477" s="26"/>
-      <c r="L477" s="26"/>
-      <c r="M477" s="26"/>
-      <c r="N477" s="26"/>
-      <c r="O477" s="26"/>
+      <c r="H477" s="27"/>
+      <c r="I477" s="27"/>
+      <c r="J477" s="27"/>
+      <c r="K477" s="27"/>
+      <c r="L477" s="27"/>
+      <c r="M477" s="27"/>
+      <c r="N477" s="27"/>
+      <c r="O477" s="27"/>
     </row>
     <row r="478" spans="1:15">
       <c r="A478" s="13"/>
@@ -28601,14 +28603,14 @@
       <c r="D478" s="16"/>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
-      <c r="H478" s="26"/>
-      <c r="I478" s="26"/>
-      <c r="J478" s="26"/>
-      <c r="K478" s="26"/>
-      <c r="L478" s="26"/>
-      <c r="M478" s="26"/>
-      <c r="N478" s="26"/>
-      <c r="O478" s="26"/>
+      <c r="H478" s="27"/>
+      <c r="I478" s="27"/>
+      <c r="J478" s="27"/>
+      <c r="K478" s="27"/>
+      <c r="L478" s="27"/>
+      <c r="M478" s="27"/>
+      <c r="N478" s="27"/>
+      <c r="O478" s="27"/>
     </row>
     <row r="479" spans="1:15">
       <c r="A479" s="13"/>
@@ -28689,14 +28691,14 @@
       <c r="D487" s="16"/>
       <c r="E487" s="16"/>
       <c r="F487" s="16"/>
-      <c r="H487" s="26"/>
-      <c r="I487" s="26"/>
-      <c r="J487" s="26"/>
-      <c r="K487" s="26"/>
-      <c r="L487" s="26"/>
-      <c r="M487" s="26"/>
-      <c r="N487" s="26"/>
-      <c r="O487" s="26"/>
+      <c r="H487" s="27"/>
+      <c r="I487" s="27"/>
+      <c r="J487" s="27"/>
+      <c r="K487" s="27"/>
+      <c r="L487" s="27"/>
+      <c r="M487" s="27"/>
+      <c r="N487" s="27"/>
+      <c r="O487" s="27"/>
     </row>
     <row r="488" spans="1:15">
       <c r="A488" s="13"/>
@@ -28705,14 +28707,14 @@
       <c r="D488" s="16"/>
       <c r="E488" s="16"/>
       <c r="F488" s="16"/>
-      <c r="H488" s="26"/>
-      <c r="I488" s="26"/>
-      <c r="J488" s="26"/>
-      <c r="K488" s="26"/>
-      <c r="L488" s="26"/>
-      <c r="M488" s="26"/>
-      <c r="N488" s="26"/>
-      <c r="O488" s="26"/>
+      <c r="H488" s="27"/>
+      <c r="I488" s="27"/>
+      <c r="J488" s="27"/>
+      <c r="K488" s="27"/>
+      <c r="L488" s="27"/>
+      <c r="M488" s="27"/>
+      <c r="N488" s="27"/>
+      <c r="O488" s="27"/>
     </row>
     <row r="489" spans="1:15">
       <c r="A489" s="13"/>
@@ -28793,14 +28795,14 @@
       <c r="D497" s="16"/>
       <c r="E497" s="16"/>
       <c r="F497" s="16"/>
-      <c r="H497" s="26"/>
-      <c r="I497" s="26"/>
-      <c r="J497" s="26"/>
-      <c r="K497" s="26"/>
-      <c r="L497" s="26"/>
-      <c r="M497" s="26"/>
-      <c r="N497" s="26"/>
-      <c r="O497" s="26"/>
+      <c r="H497" s="27"/>
+      <c r="I497" s="27"/>
+      <c r="J497" s="27"/>
+      <c r="K497" s="27"/>
+      <c r="L497" s="27"/>
+      <c r="M497" s="27"/>
+      <c r="N497" s="27"/>
+      <c r="O497" s="27"/>
     </row>
     <row r="498" spans="1:15">
       <c r="A498" s="13"/>
@@ -28809,14 +28811,14 @@
       <c r="D498" s="16"/>
       <c r="E498" s="16"/>
       <c r="F498" s="16"/>
-      <c r="H498" s="26"/>
-      <c r="I498" s="26"/>
-      <c r="J498" s="26"/>
-      <c r="K498" s="26"/>
-      <c r="L498" s="26"/>
-      <c r="M498" s="26"/>
-      <c r="N498" s="26"/>
-      <c r="O498" s="26"/>
+      <c r="H498" s="27"/>
+      <c r="I498" s="27"/>
+      <c r="J498" s="27"/>
+      <c r="K498" s="27"/>
+      <c r="L498" s="27"/>
+      <c r="M498" s="27"/>
+      <c r="N498" s="27"/>
+      <c r="O498" s="27"/>
     </row>
     <row r="499" spans="1:15">
       <c r="A499" s="13"/>
@@ -32922,24 +32924,24 @@
       <c r="F1011" s="26"/>
     </row>
     <row r="1012" spans="1:6">
-      <c r="A1012" s="26" t="s">
+      <c r="A1012" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1012" s="26"/>
-      <c r="C1012" s="26"/>
-      <c r="D1012" s="26"/>
-      <c r="E1012" s="26"/>
-      <c r="F1012" s="26"/>
+      <c r="B1012" s="27"/>
+      <c r="C1012" s="27"/>
+      <c r="D1012" s="27"/>
+      <c r="E1012" s="27"/>
+      <c r="F1012" s="27"/>
     </row>
     <row r="1013" spans="1:6">
-      <c r="A1013" s="26" t="s">
+      <c r="A1013" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1013" s="26"/>
-      <c r="C1013" s="26"/>
-      <c r="D1013" s="26"/>
-      <c r="E1013" s="26"/>
-      <c r="F1013" s="26"/>
+      <c r="B1013" s="27"/>
+      <c r="C1013" s="27"/>
+      <c r="D1013" s="27"/>
+      <c r="E1013" s="27"/>
+      <c r="F1013" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="162">
@@ -33135,57 +33137,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -33233,30 +33235,30 @@
       <c r="M4" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>

--- a/PhoenixCI/Excel_Template/30204.xlsx
+++ b/PhoenixCI/Excel_Template/30204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE39C6B7-8D30-4D6B-8A08-FD6F3D836DAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8110EDE0-C756-45DA-980E-5249386C13E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="14145"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="股價指數暨黃金類交易人部位限制標準調整一欄表" sheetId="7" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -816,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,7 +842,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -868,7 +869,7 @@
     <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -895,9 +896,6 @@
     <xf numFmtId="178" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -907,7 +905,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23699,14 +23697,14 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="13"/>
@@ -23715,14 +23713,14 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="13"/>
@@ -23803,14 +23801,14 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="13"/>
@@ -23819,14 +23817,14 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13"/>
@@ -23907,14 +23905,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="13"/>
@@ -23923,14 +23921,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="13"/>
@@ -24011,14 +24009,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="13"/>
@@ -24027,14 +24025,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="13"/>
@@ -24115,14 +24113,14 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="13"/>
@@ -24131,14 +24129,14 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="13"/>
@@ -24219,14 +24217,14 @@
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="13"/>
@@ -24235,14 +24233,14 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="13"/>
@@ -24323,14 +24321,14 @@
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="13"/>
@@ -24339,14 +24337,14 @@
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="13"/>
@@ -24427,14 +24425,14 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="13"/>
@@ -24443,14 +24441,14 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="13"/>
@@ -24531,14 +24529,14 @@
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="13"/>
@@ -24547,14 +24545,14 @@
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="13"/>
@@ -24635,14 +24633,14 @@
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="27"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="13"/>
@@ -24651,14 +24649,14 @@
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="27"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="13"/>
@@ -24739,14 +24737,14 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="26"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="13"/>
@@ -24755,14 +24753,14 @@
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="27"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="13"/>
@@ -24843,14 +24841,14 @@
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="13"/>
@@ -24859,14 +24857,14 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="13"/>
@@ -24947,14 +24945,14 @@
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="27"/>
-      <c r="O127" s="27"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="13"/>
@@ -24963,14 +24961,14 @@
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26"/>
+      <c r="M128" s="26"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="26"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="13"/>
@@ -25051,14 +25049,14 @@
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="26"/>
+      <c r="M137" s="26"/>
+      <c r="N137" s="26"/>
+      <c r="O137" s="26"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="13"/>
@@ -25067,14 +25065,14 @@
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="27"/>
-      <c r="O138" s="27"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="26"/>
+      <c r="N138" s="26"/>
+      <c r="O138" s="26"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="13"/>
@@ -25155,14 +25153,14 @@
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="27"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="26"/>
+      <c r="M147" s="26"/>
+      <c r="N147" s="26"/>
+      <c r="O147" s="26"/>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="13"/>
@@ -25171,14 +25169,14 @@
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="27"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="27"/>
-      <c r="O148" s="27"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="26"/>
+      <c r="N148" s="26"/>
+      <c r="O148" s="26"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="13"/>
@@ -25259,14 +25257,14 @@
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="27"/>
-      <c r="M157" s="27"/>
-      <c r="N157" s="27"/>
-      <c r="O157" s="27"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="26"/>
+      <c r="M157" s="26"/>
+      <c r="N157" s="26"/>
+      <c r="O157" s="26"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="13"/>
@@ -25275,14 +25273,14 @@
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="27"/>
-      <c r="M158" s="27"/>
-      <c r="N158" s="27"/>
-      <c r="O158" s="27"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="26"/>
+      <c r="M158" s="26"/>
+      <c r="N158" s="26"/>
+      <c r="O158" s="26"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="13"/>
@@ -25363,14 +25361,14 @@
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="27"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="26"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="26"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="26"/>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="13"/>
@@ -25379,14 +25377,14 @@
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="27"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="26"/>
+      <c r="M168" s="26"/>
+      <c r="N168" s="26"/>
+      <c r="O168" s="26"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="13"/>
@@ -25467,14 +25465,14 @@
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="26"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="13"/>
@@ -25483,14 +25481,14 @@
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="27"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="26"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="13"/>
@@ -25571,14 +25569,14 @@
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="27"/>
-      <c r="M187" s="27"/>
-      <c r="N187" s="27"/>
-      <c r="O187" s="27"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="26"/>
+      <c r="J187" s="26"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="26"/>
+      <c r="M187" s="26"/>
+      <c r="N187" s="26"/>
+      <c r="O187" s="26"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="13"/>
@@ -25587,14 +25585,14 @@
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="27"/>
-      <c r="M188" s="27"/>
-      <c r="N188" s="27"/>
-      <c r="O188" s="27"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="26"/>
+      <c r="M188" s="26"/>
+      <c r="N188" s="26"/>
+      <c r="O188" s="26"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="13"/>
@@ -25675,14 +25673,14 @@
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-      <c r="L197" s="27"/>
-      <c r="M197" s="27"/>
-      <c r="N197" s="27"/>
-      <c r="O197" s="27"/>
+      <c r="H197" s="26"/>
+      <c r="I197" s="26"/>
+      <c r="J197" s="26"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="26"/>
+      <c r="M197" s="26"/>
+      <c r="N197" s="26"/>
+      <c r="O197" s="26"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="13"/>
@@ -25691,14 +25689,14 @@
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
       <c r="F198" s="16"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-      <c r="L198" s="27"/>
-      <c r="M198" s="27"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
+      <c r="H198" s="26"/>
+      <c r="I198" s="26"/>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="26"/>
+      <c r="M198" s="26"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="13"/>
@@ -25779,14 +25777,14 @@
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="27"/>
-      <c r="J207" s="27"/>
-      <c r="K207" s="27"/>
-      <c r="L207" s="27"/>
-      <c r="M207" s="27"/>
-      <c r="N207" s="27"/>
-      <c r="O207" s="27"/>
+      <c r="H207" s="26"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
+      <c r="M207" s="26"/>
+      <c r="N207" s="26"/>
+      <c r="O207" s="26"/>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="13"/>
@@ -25795,14 +25793,14 @@
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
-      <c r="L208" s="27"/>
-      <c r="M208" s="27"/>
-      <c r="N208" s="27"/>
-      <c r="O208" s="27"/>
+      <c r="H208" s="26"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="26"/>
+      <c r="K208" s="26"/>
+      <c r="L208" s="26"/>
+      <c r="M208" s="26"/>
+      <c r="N208" s="26"/>
+      <c r="O208" s="26"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="13"/>
@@ -25883,14 +25881,14 @@
       <c r="D217" s="16"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-      <c r="L217" s="27"/>
-      <c r="M217" s="27"/>
-      <c r="N217" s="27"/>
-      <c r="O217" s="27"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="26"/>
+      <c r="J217" s="26"/>
+      <c r="K217" s="26"/>
+      <c r="L217" s="26"/>
+      <c r="M217" s="26"/>
+      <c r="N217" s="26"/>
+      <c r="O217" s="26"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="13"/>
@@ -25899,14 +25897,14 @@
       <c r="D218" s="16"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="27"/>
-      <c r="L218" s="27"/>
-      <c r="M218" s="27"/>
-      <c r="N218" s="27"/>
-      <c r="O218" s="27"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="26"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="26"/>
+      <c r="M218" s="26"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="26"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="13"/>
@@ -25987,14 +25985,14 @@
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
       <c r="F227" s="16"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
-      <c r="L227" s="27"/>
-      <c r="M227" s="27"/>
-      <c r="N227" s="27"/>
-      <c r="O227" s="27"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="26"/>
+      <c r="M227" s="26"/>
+      <c r="N227" s="26"/>
+      <c r="O227" s="26"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="13"/>
@@ -26003,14 +26001,14 @@
       <c r="D228" s="16"/>
       <c r="E228" s="16"/>
       <c r="F228" s="16"/>
-      <c r="H228" s="27"/>
-      <c r="I228" s="27"/>
-      <c r="J228" s="27"/>
-      <c r="K228" s="27"/>
-      <c r="L228" s="27"/>
-      <c r="M228" s="27"/>
-      <c r="N228" s="27"/>
-      <c r="O228" s="27"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="26"/>
+      <c r="J228" s="26"/>
+      <c r="K228" s="26"/>
+      <c r="L228" s="26"/>
+      <c r="M228" s="26"/>
+      <c r="N228" s="26"/>
+      <c r="O228" s="26"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="13"/>
@@ -26091,14 +26089,14 @@
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
-      <c r="H237" s="27"/>
-      <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
-      <c r="K237" s="27"/>
-      <c r="L237" s="27"/>
-      <c r="M237" s="27"/>
-      <c r="N237" s="27"/>
-      <c r="O237" s="27"/>
+      <c r="H237" s="26"/>
+      <c r="I237" s="26"/>
+      <c r="J237" s="26"/>
+      <c r="K237" s="26"/>
+      <c r="L237" s="26"/>
+      <c r="M237" s="26"/>
+      <c r="N237" s="26"/>
+      <c r="O237" s="26"/>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="13"/>
@@ -26107,14 +26105,14 @@
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
-      <c r="H238" s="27"/>
-      <c r="I238" s="27"/>
-      <c r="J238" s="27"/>
-      <c r="K238" s="27"/>
-      <c r="L238" s="27"/>
-      <c r="M238" s="27"/>
-      <c r="N238" s="27"/>
-      <c r="O238" s="27"/>
+      <c r="H238" s="26"/>
+      <c r="I238" s="26"/>
+      <c r="J238" s="26"/>
+      <c r="K238" s="26"/>
+      <c r="L238" s="26"/>
+      <c r="M238" s="26"/>
+      <c r="N238" s="26"/>
+      <c r="O238" s="26"/>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="13"/>
@@ -26195,14 +26193,14 @@
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
-      <c r="H247" s="27"/>
-      <c r="I247" s="27"/>
-      <c r="J247" s="27"/>
-      <c r="K247" s="27"/>
-      <c r="L247" s="27"/>
-      <c r="M247" s="27"/>
-      <c r="N247" s="27"/>
-      <c r="O247" s="27"/>
+      <c r="H247" s="26"/>
+      <c r="I247" s="26"/>
+      <c r="J247" s="26"/>
+      <c r="K247" s="26"/>
+      <c r="L247" s="26"/>
+      <c r="M247" s="26"/>
+      <c r="N247" s="26"/>
+      <c r="O247" s="26"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="13"/>
@@ -26211,14 +26209,14 @@
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
       <c r="F248" s="16"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="27"/>
-      <c r="J248" s="27"/>
-      <c r="K248" s="27"/>
-      <c r="L248" s="27"/>
-      <c r="M248" s="27"/>
-      <c r="N248" s="27"/>
-      <c r="O248" s="27"/>
+      <c r="H248" s="26"/>
+      <c r="I248" s="26"/>
+      <c r="J248" s="26"/>
+      <c r="K248" s="26"/>
+      <c r="L248" s="26"/>
+      <c r="M248" s="26"/>
+      <c r="N248" s="26"/>
+      <c r="O248" s="26"/>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="13"/>
@@ -26299,14 +26297,14 @@
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
       <c r="F257" s="16"/>
-      <c r="H257" s="27"/>
-      <c r="I257" s="27"/>
-      <c r="J257" s="27"/>
-      <c r="K257" s="27"/>
-      <c r="L257" s="27"/>
-      <c r="M257" s="27"/>
-      <c r="N257" s="27"/>
-      <c r="O257" s="27"/>
+      <c r="H257" s="26"/>
+      <c r="I257" s="26"/>
+      <c r="J257" s="26"/>
+      <c r="K257" s="26"/>
+      <c r="L257" s="26"/>
+      <c r="M257" s="26"/>
+      <c r="N257" s="26"/>
+      <c r="O257" s="26"/>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="13"/>
@@ -26315,14 +26313,14 @@
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
       <c r="F258" s="16"/>
-      <c r="H258" s="27"/>
-      <c r="I258" s="27"/>
-      <c r="J258" s="27"/>
-      <c r="K258" s="27"/>
-      <c r="L258" s="27"/>
-      <c r="M258" s="27"/>
-      <c r="N258" s="27"/>
-      <c r="O258" s="27"/>
+      <c r="H258" s="26"/>
+      <c r="I258" s="26"/>
+      <c r="J258" s="26"/>
+      <c r="K258" s="26"/>
+      <c r="L258" s="26"/>
+      <c r="M258" s="26"/>
+      <c r="N258" s="26"/>
+      <c r="O258" s="26"/>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="13"/>
@@ -26403,14 +26401,14 @@
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
       <c r="F267" s="16"/>
-      <c r="H267" s="27"/>
-      <c r="I267" s="27"/>
-      <c r="J267" s="27"/>
-      <c r="K267" s="27"/>
-      <c r="L267" s="27"/>
-      <c r="M267" s="27"/>
-      <c r="N267" s="27"/>
-      <c r="O267" s="27"/>
+      <c r="H267" s="26"/>
+      <c r="I267" s="26"/>
+      <c r="J267" s="26"/>
+      <c r="K267" s="26"/>
+      <c r="L267" s="26"/>
+      <c r="M267" s="26"/>
+      <c r="N267" s="26"/>
+      <c r="O267" s="26"/>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="13"/>
@@ -26419,14 +26417,14 @@
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
       <c r="F268" s="16"/>
-      <c r="H268" s="27"/>
-      <c r="I268" s="27"/>
-      <c r="J268" s="27"/>
-      <c r="K268" s="27"/>
-      <c r="L268" s="27"/>
-      <c r="M268" s="27"/>
-      <c r="N268" s="27"/>
-      <c r="O268" s="27"/>
+      <c r="H268" s="26"/>
+      <c r="I268" s="26"/>
+      <c r="J268" s="26"/>
+      <c r="K268" s="26"/>
+      <c r="L268" s="26"/>
+      <c r="M268" s="26"/>
+      <c r="N268" s="26"/>
+      <c r="O268" s="26"/>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="13"/>
@@ -26507,14 +26505,14 @@
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
       <c r="F277" s="16"/>
-      <c r="H277" s="27"/>
-      <c r="I277" s="27"/>
-      <c r="J277" s="27"/>
-      <c r="K277" s="27"/>
-      <c r="L277" s="27"/>
-      <c r="M277" s="27"/>
-      <c r="N277" s="27"/>
-      <c r="O277" s="27"/>
+      <c r="H277" s="26"/>
+      <c r="I277" s="26"/>
+      <c r="J277" s="26"/>
+      <c r="K277" s="26"/>
+      <c r="L277" s="26"/>
+      <c r="M277" s="26"/>
+      <c r="N277" s="26"/>
+      <c r="O277" s="26"/>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="13"/>
@@ -26523,14 +26521,14 @@
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
       <c r="F278" s="16"/>
-      <c r="H278" s="27"/>
-      <c r="I278" s="27"/>
-      <c r="J278" s="27"/>
-      <c r="K278" s="27"/>
-      <c r="L278" s="27"/>
-      <c r="M278" s="27"/>
-      <c r="N278" s="27"/>
-      <c r="O278" s="27"/>
+      <c r="H278" s="26"/>
+      <c r="I278" s="26"/>
+      <c r="J278" s="26"/>
+      <c r="K278" s="26"/>
+      <c r="L278" s="26"/>
+      <c r="M278" s="26"/>
+      <c r="N278" s="26"/>
+      <c r="O278" s="26"/>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="13"/>
@@ -26611,14 +26609,14 @@
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
       <c r="F287" s="16"/>
-      <c r="H287" s="27"/>
-      <c r="I287" s="27"/>
-      <c r="J287" s="27"/>
-      <c r="K287" s="27"/>
-      <c r="L287" s="27"/>
-      <c r="M287" s="27"/>
-      <c r="N287" s="27"/>
-      <c r="O287" s="27"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="26"/>
+      <c r="O287" s="26"/>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="13"/>
@@ -26627,14 +26625,14 @@
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
       <c r="F288" s="16"/>
-      <c r="H288" s="27"/>
-      <c r="I288" s="27"/>
-      <c r="J288" s="27"/>
-      <c r="K288" s="27"/>
-      <c r="L288" s="27"/>
-      <c r="M288" s="27"/>
-      <c r="N288" s="27"/>
-      <c r="O288" s="27"/>
+      <c r="H288" s="26"/>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="26"/>
+      <c r="O288" s="26"/>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="13"/>
@@ -26715,14 +26713,14 @@
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
       <c r="F297" s="16"/>
-      <c r="H297" s="27"/>
-      <c r="I297" s="27"/>
-      <c r="J297" s="27"/>
-      <c r="K297" s="27"/>
-      <c r="L297" s="27"/>
-      <c r="M297" s="27"/>
-      <c r="N297" s="27"/>
-      <c r="O297" s="27"/>
+      <c r="H297" s="26"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
+      <c r="L297" s="26"/>
+      <c r="M297" s="26"/>
+      <c r="N297" s="26"/>
+      <c r="O297" s="26"/>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="13"/>
@@ -26731,14 +26729,14 @@
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
       <c r="F298" s="16"/>
-      <c r="H298" s="27"/>
-      <c r="I298" s="27"/>
-      <c r="J298" s="27"/>
-      <c r="K298" s="27"/>
-      <c r="L298" s="27"/>
-      <c r="M298" s="27"/>
-      <c r="N298" s="27"/>
-      <c r="O298" s="27"/>
+      <c r="H298" s="26"/>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
+      <c r="L298" s="26"/>
+      <c r="M298" s="26"/>
+      <c r="N298" s="26"/>
+      <c r="O298" s="26"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="13"/>
@@ -26819,14 +26817,14 @@
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
       <c r="F307" s="16"/>
-      <c r="H307" s="27"/>
-      <c r="I307" s="27"/>
-      <c r="J307" s="27"/>
-      <c r="K307" s="27"/>
-      <c r="L307" s="27"/>
-      <c r="M307" s="27"/>
-      <c r="N307" s="27"/>
-      <c r="O307" s="27"/>
+      <c r="H307" s="26"/>
+      <c r="I307" s="26"/>
+      <c r="J307" s="26"/>
+      <c r="K307" s="26"/>
+      <c r="L307" s="26"/>
+      <c r="M307" s="26"/>
+      <c r="N307" s="26"/>
+      <c r="O307" s="26"/>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="13"/>
@@ -26835,14 +26833,14 @@
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
       <c r="F308" s="16"/>
-      <c r="H308" s="27"/>
-      <c r="I308" s="27"/>
-      <c r="J308" s="27"/>
-      <c r="K308" s="27"/>
-      <c r="L308" s="27"/>
-      <c r="M308" s="27"/>
-      <c r="N308" s="27"/>
-      <c r="O308" s="27"/>
+      <c r="H308" s="26"/>
+      <c r="I308" s="26"/>
+      <c r="J308" s="26"/>
+      <c r="K308" s="26"/>
+      <c r="L308" s="26"/>
+      <c r="M308" s="26"/>
+      <c r="N308" s="26"/>
+      <c r="O308" s="26"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="13"/>
@@ -26923,14 +26921,14 @@
       <c r="D317" s="16"/>
       <c r="E317" s="16"/>
       <c r="F317" s="16"/>
-      <c r="H317" s="27"/>
-      <c r="I317" s="27"/>
-      <c r="J317" s="27"/>
-      <c r="K317" s="27"/>
-      <c r="L317" s="27"/>
-      <c r="M317" s="27"/>
-      <c r="N317" s="27"/>
-      <c r="O317" s="27"/>
+      <c r="H317" s="26"/>
+      <c r="I317" s="26"/>
+      <c r="J317" s="26"/>
+      <c r="K317" s="26"/>
+      <c r="L317" s="26"/>
+      <c r="M317" s="26"/>
+      <c r="N317" s="26"/>
+      <c r="O317" s="26"/>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="13"/>
@@ -26939,14 +26937,14 @@
       <c r="D318" s="16"/>
       <c r="E318" s="16"/>
       <c r="F318" s="16"/>
-      <c r="H318" s="27"/>
-      <c r="I318" s="27"/>
-      <c r="J318" s="27"/>
-      <c r="K318" s="27"/>
-      <c r="L318" s="27"/>
-      <c r="M318" s="27"/>
-      <c r="N318" s="27"/>
-      <c r="O318" s="27"/>
+      <c r="H318" s="26"/>
+      <c r="I318" s="26"/>
+      <c r="J318" s="26"/>
+      <c r="K318" s="26"/>
+      <c r="L318" s="26"/>
+      <c r="M318" s="26"/>
+      <c r="N318" s="26"/>
+      <c r="O318" s="26"/>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="13"/>
@@ -27027,14 +27025,14 @@
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
       <c r="F327" s="16"/>
-      <c r="H327" s="27"/>
-      <c r="I327" s="27"/>
-      <c r="J327" s="27"/>
-      <c r="K327" s="27"/>
-      <c r="L327" s="27"/>
-      <c r="M327" s="27"/>
-      <c r="N327" s="27"/>
-      <c r="O327" s="27"/>
+      <c r="H327" s="26"/>
+      <c r="I327" s="26"/>
+      <c r="J327" s="26"/>
+      <c r="K327" s="26"/>
+      <c r="L327" s="26"/>
+      <c r="M327" s="26"/>
+      <c r="N327" s="26"/>
+      <c r="O327" s="26"/>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="13"/>
@@ -27043,14 +27041,14 @@
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
       <c r="F328" s="16"/>
-      <c r="H328" s="27"/>
-      <c r="I328" s="27"/>
-      <c r="J328" s="27"/>
-      <c r="K328" s="27"/>
-      <c r="L328" s="27"/>
-      <c r="M328" s="27"/>
-      <c r="N328" s="27"/>
-      <c r="O328" s="27"/>
+      <c r="H328" s="26"/>
+      <c r="I328" s="26"/>
+      <c r="J328" s="26"/>
+      <c r="K328" s="26"/>
+      <c r="L328" s="26"/>
+      <c r="M328" s="26"/>
+      <c r="N328" s="26"/>
+      <c r="O328" s="26"/>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="13"/>
@@ -27131,14 +27129,14 @@
       <c r="D337" s="16"/>
       <c r="E337" s="16"/>
       <c r="F337" s="16"/>
-      <c r="H337" s="27"/>
-      <c r="I337" s="27"/>
-      <c r="J337" s="27"/>
-      <c r="K337" s="27"/>
-      <c r="L337" s="27"/>
-      <c r="M337" s="27"/>
-      <c r="N337" s="27"/>
-      <c r="O337" s="27"/>
+      <c r="H337" s="26"/>
+      <c r="I337" s="26"/>
+      <c r="J337" s="26"/>
+      <c r="K337" s="26"/>
+      <c r="L337" s="26"/>
+      <c r="M337" s="26"/>
+      <c r="N337" s="26"/>
+      <c r="O337" s="26"/>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="13"/>
@@ -27147,14 +27145,14 @@
       <c r="D338" s="16"/>
       <c r="E338" s="16"/>
       <c r="F338" s="16"/>
-      <c r="H338" s="27"/>
-      <c r="I338" s="27"/>
-      <c r="J338" s="27"/>
-      <c r="K338" s="27"/>
-      <c r="L338" s="27"/>
-      <c r="M338" s="27"/>
-      <c r="N338" s="27"/>
-      <c r="O338" s="27"/>
+      <c r="H338" s="26"/>
+      <c r="I338" s="26"/>
+      <c r="J338" s="26"/>
+      <c r="K338" s="26"/>
+      <c r="L338" s="26"/>
+      <c r="M338" s="26"/>
+      <c r="N338" s="26"/>
+      <c r="O338" s="26"/>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="13"/>
@@ -27235,14 +27233,14 @@
       <c r="D347" s="16"/>
       <c r="E347" s="16"/>
       <c r="F347" s="16"/>
-      <c r="H347" s="27"/>
-      <c r="I347" s="27"/>
-      <c r="J347" s="27"/>
-      <c r="K347" s="27"/>
-      <c r="L347" s="27"/>
-      <c r="M347" s="27"/>
-      <c r="N347" s="27"/>
-      <c r="O347" s="27"/>
+      <c r="H347" s="26"/>
+      <c r="I347" s="26"/>
+      <c r="J347" s="26"/>
+      <c r="K347" s="26"/>
+      <c r="L347" s="26"/>
+      <c r="M347" s="26"/>
+      <c r="N347" s="26"/>
+      <c r="O347" s="26"/>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="13"/>
@@ -27251,14 +27249,14 @@
       <c r="D348" s="16"/>
       <c r="E348" s="16"/>
       <c r="F348" s="16"/>
-      <c r="H348" s="27"/>
-      <c r="I348" s="27"/>
-      <c r="J348" s="27"/>
-      <c r="K348" s="27"/>
-      <c r="L348" s="27"/>
-      <c r="M348" s="27"/>
-      <c r="N348" s="27"/>
-      <c r="O348" s="27"/>
+      <c r="H348" s="26"/>
+      <c r="I348" s="26"/>
+      <c r="J348" s="26"/>
+      <c r="K348" s="26"/>
+      <c r="L348" s="26"/>
+      <c r="M348" s="26"/>
+      <c r="N348" s="26"/>
+      <c r="O348" s="26"/>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="13"/>
@@ -27339,14 +27337,14 @@
       <c r="D357" s="16"/>
       <c r="E357" s="16"/>
       <c r="F357" s="16"/>
-      <c r="H357" s="27"/>
-      <c r="I357" s="27"/>
-      <c r="J357" s="27"/>
-      <c r="K357" s="27"/>
-      <c r="L357" s="27"/>
-      <c r="M357" s="27"/>
-      <c r="N357" s="27"/>
-      <c r="O357" s="27"/>
+      <c r="H357" s="26"/>
+      <c r="I357" s="26"/>
+      <c r="J357" s="26"/>
+      <c r="K357" s="26"/>
+      <c r="L357" s="26"/>
+      <c r="M357" s="26"/>
+      <c r="N357" s="26"/>
+      <c r="O357" s="26"/>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="13"/>
@@ -27355,14 +27353,14 @@
       <c r="D358" s="16"/>
       <c r="E358" s="16"/>
       <c r="F358" s="16"/>
-      <c r="H358" s="27"/>
-      <c r="I358" s="27"/>
-      <c r="J358" s="27"/>
-      <c r="K358" s="27"/>
-      <c r="L358" s="27"/>
-      <c r="M358" s="27"/>
-      <c r="N358" s="27"/>
-      <c r="O358" s="27"/>
+      <c r="H358" s="26"/>
+      <c r="I358" s="26"/>
+      <c r="J358" s="26"/>
+      <c r="K358" s="26"/>
+      <c r="L358" s="26"/>
+      <c r="M358" s="26"/>
+      <c r="N358" s="26"/>
+      <c r="O358" s="26"/>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="13"/>
@@ -27443,14 +27441,14 @@
       <c r="D367" s="16"/>
       <c r="E367" s="16"/>
       <c r="F367" s="16"/>
-      <c r="H367" s="27"/>
-      <c r="I367" s="27"/>
-      <c r="J367" s="27"/>
-      <c r="K367" s="27"/>
-      <c r="L367" s="27"/>
-      <c r="M367" s="27"/>
-      <c r="N367" s="27"/>
-      <c r="O367" s="27"/>
+      <c r="H367" s="26"/>
+      <c r="I367" s="26"/>
+      <c r="J367" s="26"/>
+      <c r="K367" s="26"/>
+      <c r="L367" s="26"/>
+      <c r="M367" s="26"/>
+      <c r="N367" s="26"/>
+      <c r="O367" s="26"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="13"/>
@@ -27459,14 +27457,14 @@
       <c r="D368" s="16"/>
       <c r="E368" s="16"/>
       <c r="F368" s="16"/>
-      <c r="H368" s="27"/>
-      <c r="I368" s="27"/>
-      <c r="J368" s="27"/>
-      <c r="K368" s="27"/>
-      <c r="L368" s="27"/>
-      <c r="M368" s="27"/>
-      <c r="N368" s="27"/>
-      <c r="O368" s="27"/>
+      <c r="H368" s="26"/>
+      <c r="I368" s="26"/>
+      <c r="J368" s="26"/>
+      <c r="K368" s="26"/>
+      <c r="L368" s="26"/>
+      <c r="M368" s="26"/>
+      <c r="N368" s="26"/>
+      <c r="O368" s="26"/>
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="13"/>
@@ -27547,14 +27545,14 @@
       <c r="D377" s="16"/>
       <c r="E377" s="16"/>
       <c r="F377" s="16"/>
-      <c r="H377" s="27"/>
-      <c r="I377" s="27"/>
-      <c r="J377" s="27"/>
-      <c r="K377" s="27"/>
-      <c r="L377" s="27"/>
-      <c r="M377" s="27"/>
-      <c r="N377" s="27"/>
-      <c r="O377" s="27"/>
+      <c r="H377" s="26"/>
+      <c r="I377" s="26"/>
+      <c r="J377" s="26"/>
+      <c r="K377" s="26"/>
+      <c r="L377" s="26"/>
+      <c r="M377" s="26"/>
+      <c r="N377" s="26"/>
+      <c r="O377" s="26"/>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="13"/>
@@ -27563,14 +27561,14 @@
       <c r="D378" s="16"/>
       <c r="E378" s="16"/>
       <c r="F378" s="16"/>
-      <c r="H378" s="27"/>
-      <c r="I378" s="27"/>
-      <c r="J378" s="27"/>
-      <c r="K378" s="27"/>
-      <c r="L378" s="27"/>
-      <c r="M378" s="27"/>
-      <c r="N378" s="27"/>
-      <c r="O378" s="27"/>
+      <c r="H378" s="26"/>
+      <c r="I378" s="26"/>
+      <c r="J378" s="26"/>
+      <c r="K378" s="26"/>
+      <c r="L378" s="26"/>
+      <c r="M378" s="26"/>
+      <c r="N378" s="26"/>
+      <c r="O378" s="26"/>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="13"/>
@@ -27651,14 +27649,14 @@
       <c r="D387" s="16"/>
       <c r="E387" s="16"/>
       <c r="F387" s="16"/>
-      <c r="H387" s="27"/>
-      <c r="I387" s="27"/>
-      <c r="J387" s="27"/>
-      <c r="K387" s="27"/>
-      <c r="L387" s="27"/>
-      <c r="M387" s="27"/>
-      <c r="N387" s="27"/>
-      <c r="O387" s="27"/>
+      <c r="H387" s="26"/>
+      <c r="I387" s="26"/>
+      <c r="J387" s="26"/>
+      <c r="K387" s="26"/>
+      <c r="L387" s="26"/>
+      <c r="M387" s="26"/>
+      <c r="N387" s="26"/>
+      <c r="O387" s="26"/>
     </row>
     <row r="388" spans="1:15">
       <c r="A388" s="13"/>
@@ -27667,14 +27665,14 @@
       <c r="D388" s="16"/>
       <c r="E388" s="16"/>
       <c r="F388" s="16"/>
-      <c r="H388" s="27"/>
-      <c r="I388" s="27"/>
-      <c r="J388" s="27"/>
-      <c r="K388" s="27"/>
-      <c r="L388" s="27"/>
-      <c r="M388" s="27"/>
-      <c r="N388" s="27"/>
-      <c r="O388" s="27"/>
+      <c r="H388" s="26"/>
+      <c r="I388" s="26"/>
+      <c r="J388" s="26"/>
+      <c r="K388" s="26"/>
+      <c r="L388" s="26"/>
+      <c r="M388" s="26"/>
+      <c r="N388" s="26"/>
+      <c r="O388" s="26"/>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="13"/>
@@ -27755,14 +27753,14 @@
       <c r="D397" s="16"/>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
-      <c r="H397" s="27"/>
-      <c r="I397" s="27"/>
-      <c r="J397" s="27"/>
-      <c r="K397" s="27"/>
-      <c r="L397" s="27"/>
-      <c r="M397" s="27"/>
-      <c r="N397" s="27"/>
-      <c r="O397" s="27"/>
+      <c r="H397" s="26"/>
+      <c r="I397" s="26"/>
+      <c r="J397" s="26"/>
+      <c r="K397" s="26"/>
+      <c r="L397" s="26"/>
+      <c r="M397" s="26"/>
+      <c r="N397" s="26"/>
+      <c r="O397" s="26"/>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="13"/>
@@ -27771,14 +27769,14 @@
       <c r="D398" s="16"/>
       <c r="E398" s="16"/>
       <c r="F398" s="16"/>
-      <c r="H398" s="27"/>
-      <c r="I398" s="27"/>
-      <c r="J398" s="27"/>
-      <c r="K398" s="27"/>
-      <c r="L398" s="27"/>
-      <c r="M398" s="27"/>
-      <c r="N398" s="27"/>
-      <c r="O398" s="27"/>
+      <c r="H398" s="26"/>
+      <c r="I398" s="26"/>
+      <c r="J398" s="26"/>
+      <c r="K398" s="26"/>
+      <c r="L398" s="26"/>
+      <c r="M398" s="26"/>
+      <c r="N398" s="26"/>
+      <c r="O398" s="26"/>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="13"/>
@@ -27859,14 +27857,14 @@
       <c r="D407" s="16"/>
       <c r="E407" s="16"/>
       <c r="F407" s="16"/>
-      <c r="H407" s="27"/>
-      <c r="I407" s="27"/>
-      <c r="J407" s="27"/>
-      <c r="K407" s="27"/>
-      <c r="L407" s="27"/>
-      <c r="M407" s="27"/>
-      <c r="N407" s="27"/>
-      <c r="O407" s="27"/>
+      <c r="H407" s="26"/>
+      <c r="I407" s="26"/>
+      <c r="J407" s="26"/>
+      <c r="K407" s="26"/>
+      <c r="L407" s="26"/>
+      <c r="M407" s="26"/>
+      <c r="N407" s="26"/>
+      <c r="O407" s="26"/>
     </row>
     <row r="408" spans="1:15">
       <c r="A408" s="13"/>
@@ -27875,14 +27873,14 @@
       <c r="D408" s="16"/>
       <c r="E408" s="16"/>
       <c r="F408" s="16"/>
-      <c r="H408" s="27"/>
-      <c r="I408" s="27"/>
-      <c r="J408" s="27"/>
-      <c r="K408" s="27"/>
-      <c r="L408" s="27"/>
-      <c r="M408" s="27"/>
-      <c r="N408" s="27"/>
-      <c r="O408" s="27"/>
+      <c r="H408" s="26"/>
+      <c r="I408" s="26"/>
+      <c r="J408" s="26"/>
+      <c r="K408" s="26"/>
+      <c r="L408" s="26"/>
+      <c r="M408" s="26"/>
+      <c r="N408" s="26"/>
+      <c r="O408" s="26"/>
     </row>
     <row r="409" spans="1:15">
       <c r="A409" s="13"/>
@@ -27963,14 +27961,14 @@
       <c r="D417" s="16"/>
       <c r="E417" s="16"/>
       <c r="F417" s="16"/>
-      <c r="H417" s="27"/>
-      <c r="I417" s="27"/>
-      <c r="J417" s="27"/>
-      <c r="K417" s="27"/>
-      <c r="L417" s="27"/>
-      <c r="M417" s="27"/>
-      <c r="N417" s="27"/>
-      <c r="O417" s="27"/>
+      <c r="H417" s="26"/>
+      <c r="I417" s="26"/>
+      <c r="J417" s="26"/>
+      <c r="K417" s="26"/>
+      <c r="L417" s="26"/>
+      <c r="M417" s="26"/>
+      <c r="N417" s="26"/>
+      <c r="O417" s="26"/>
     </row>
     <row r="418" spans="1:15">
       <c r="A418" s="13"/>
@@ -27979,14 +27977,14 @@
       <c r="D418" s="16"/>
       <c r="E418" s="16"/>
       <c r="F418" s="16"/>
-      <c r="H418" s="27"/>
-      <c r="I418" s="27"/>
-      <c r="J418" s="27"/>
-      <c r="K418" s="27"/>
-      <c r="L418" s="27"/>
-      <c r="M418" s="27"/>
-      <c r="N418" s="27"/>
-      <c r="O418" s="27"/>
+      <c r="H418" s="26"/>
+      <c r="I418" s="26"/>
+      <c r="J418" s="26"/>
+      <c r="K418" s="26"/>
+      <c r="L418" s="26"/>
+      <c r="M418" s="26"/>
+      <c r="N418" s="26"/>
+      <c r="O418" s="26"/>
     </row>
     <row r="419" spans="1:15">
       <c r="A419" s="13"/>
@@ -28067,14 +28065,14 @@
       <c r="D427" s="16"/>
       <c r="E427" s="16"/>
       <c r="F427" s="16"/>
-      <c r="H427" s="27"/>
-      <c r="I427" s="27"/>
-      <c r="J427" s="27"/>
-      <c r="K427" s="27"/>
-      <c r="L427" s="27"/>
-      <c r="M427" s="27"/>
-      <c r="N427" s="27"/>
-      <c r="O427" s="27"/>
+      <c r="H427" s="26"/>
+      <c r="I427" s="26"/>
+      <c r="J427" s="26"/>
+      <c r="K427" s="26"/>
+      <c r="L427" s="26"/>
+      <c r="M427" s="26"/>
+      <c r="N427" s="26"/>
+      <c r="O427" s="26"/>
     </row>
     <row r="428" spans="1:15">
       <c r="A428" s="13"/>
@@ -28083,14 +28081,14 @@
       <c r="D428" s="16"/>
       <c r="E428" s="16"/>
       <c r="F428" s="16"/>
-      <c r="H428" s="27"/>
-      <c r="I428" s="27"/>
-      <c r="J428" s="27"/>
-      <c r="K428" s="27"/>
-      <c r="L428" s="27"/>
-      <c r="M428" s="27"/>
-      <c r="N428" s="27"/>
-      <c r="O428" s="27"/>
+      <c r="H428" s="26"/>
+      <c r="I428" s="26"/>
+      <c r="J428" s="26"/>
+      <c r="K428" s="26"/>
+      <c r="L428" s="26"/>
+      <c r="M428" s="26"/>
+      <c r="N428" s="26"/>
+      <c r="O428" s="26"/>
     </row>
     <row r="429" spans="1:15">
       <c r="A429" s="13"/>
@@ -28171,14 +28169,14 @@
       <c r="D437" s="16"/>
       <c r="E437" s="16"/>
       <c r="F437" s="16"/>
-      <c r="H437" s="27"/>
-      <c r="I437" s="27"/>
-      <c r="J437" s="27"/>
-      <c r="K437" s="27"/>
-      <c r="L437" s="27"/>
-      <c r="M437" s="27"/>
-      <c r="N437" s="27"/>
-      <c r="O437" s="27"/>
+      <c r="H437" s="26"/>
+      <c r="I437" s="26"/>
+      <c r="J437" s="26"/>
+      <c r="K437" s="26"/>
+      <c r="L437" s="26"/>
+      <c r="M437" s="26"/>
+      <c r="N437" s="26"/>
+      <c r="O437" s="26"/>
     </row>
     <row r="438" spans="1:15">
       <c r="A438" s="13"/>
@@ -28187,14 +28185,14 @@
       <c r="D438" s="16"/>
       <c r="E438" s="16"/>
       <c r="F438" s="16"/>
-      <c r="H438" s="27"/>
-      <c r="I438" s="27"/>
-      <c r="J438" s="27"/>
-      <c r="K438" s="27"/>
-      <c r="L438" s="27"/>
-      <c r="M438" s="27"/>
-      <c r="N438" s="27"/>
-      <c r="O438" s="27"/>
+      <c r="H438" s="26"/>
+      <c r="I438" s="26"/>
+      <c r="J438" s="26"/>
+      <c r="K438" s="26"/>
+      <c r="L438" s="26"/>
+      <c r="M438" s="26"/>
+      <c r="N438" s="26"/>
+      <c r="O438" s="26"/>
     </row>
     <row r="439" spans="1:15">
       <c r="A439" s="13"/>
@@ -28275,14 +28273,14 @@
       <c r="D447" s="16"/>
       <c r="E447" s="16"/>
       <c r="F447" s="16"/>
-      <c r="H447" s="27"/>
-      <c r="I447" s="27"/>
-      <c r="J447" s="27"/>
-      <c r="K447" s="27"/>
-      <c r="L447" s="27"/>
-      <c r="M447" s="27"/>
-      <c r="N447" s="27"/>
-      <c r="O447" s="27"/>
+      <c r="H447" s="26"/>
+      <c r="I447" s="26"/>
+      <c r="J447" s="26"/>
+      <c r="K447" s="26"/>
+      <c r="L447" s="26"/>
+      <c r="M447" s="26"/>
+      <c r="N447" s="26"/>
+      <c r="O447" s="26"/>
     </row>
     <row r="448" spans="1:15">
       <c r="A448" s="13"/>
@@ -28291,14 +28289,14 @@
       <c r="D448" s="16"/>
       <c r="E448" s="16"/>
       <c r="F448" s="16"/>
-      <c r="H448" s="27"/>
-      <c r="I448" s="27"/>
-      <c r="J448" s="27"/>
-      <c r="K448" s="27"/>
-      <c r="L448" s="27"/>
-      <c r="M448" s="27"/>
-      <c r="N448" s="27"/>
-      <c r="O448" s="27"/>
+      <c r="H448" s="26"/>
+      <c r="I448" s="26"/>
+      <c r="J448" s="26"/>
+      <c r="K448" s="26"/>
+      <c r="L448" s="26"/>
+      <c r="M448" s="26"/>
+      <c r="N448" s="26"/>
+      <c r="O448" s="26"/>
     </row>
     <row r="449" spans="1:15">
       <c r="A449" s="13"/>
@@ -28379,14 +28377,14 @@
       <c r="D457" s="16"/>
       <c r="E457" s="16"/>
       <c r="F457" s="16"/>
-      <c r="H457" s="27"/>
-      <c r="I457" s="27"/>
-      <c r="J457" s="27"/>
-      <c r="K457" s="27"/>
-      <c r="L457" s="27"/>
-      <c r="M457" s="27"/>
-      <c r="N457" s="27"/>
-      <c r="O457" s="27"/>
+      <c r="H457" s="26"/>
+      <c r="I457" s="26"/>
+      <c r="J457" s="26"/>
+      <c r="K457" s="26"/>
+      <c r="L457" s="26"/>
+      <c r="M457" s="26"/>
+      <c r="N457" s="26"/>
+      <c r="O457" s="26"/>
     </row>
     <row r="458" spans="1:15">
       <c r="A458" s="13"/>
@@ -28395,14 +28393,14 @@
       <c r="D458" s="16"/>
       <c r="E458" s="16"/>
       <c r="F458" s="16"/>
-      <c r="H458" s="27"/>
-      <c r="I458" s="27"/>
-      <c r="J458" s="27"/>
-      <c r="K458" s="27"/>
-      <c r="L458" s="27"/>
-      <c r="M458" s="27"/>
-      <c r="N458" s="27"/>
-      <c r="O458" s="27"/>
+      <c r="H458" s="26"/>
+      <c r="I458" s="26"/>
+      <c r="J458" s="26"/>
+      <c r="K458" s="26"/>
+      <c r="L458" s="26"/>
+      <c r="M458" s="26"/>
+      <c r="N458" s="26"/>
+      <c r="O458" s="26"/>
     </row>
     <row r="459" spans="1:15">
       <c r="A459" s="13"/>
@@ -28483,14 +28481,14 @@
       <c r="D467" s="16"/>
       <c r="E467" s="16"/>
       <c r="F467" s="16"/>
-      <c r="H467" s="27"/>
-      <c r="I467" s="27"/>
-      <c r="J467" s="27"/>
-      <c r="K467" s="27"/>
-      <c r="L467" s="27"/>
-      <c r="M467" s="27"/>
-      <c r="N467" s="27"/>
-      <c r="O467" s="27"/>
+      <c r="H467" s="26"/>
+      <c r="I467" s="26"/>
+      <c r="J467" s="26"/>
+      <c r="K467" s="26"/>
+      <c r="L467" s="26"/>
+      <c r="M467" s="26"/>
+      <c r="N467" s="26"/>
+      <c r="O467" s="26"/>
     </row>
     <row r="468" spans="1:15">
       <c r="A468" s="13"/>
@@ -28499,14 +28497,14 @@
       <c r="D468" s="16"/>
       <c r="E468" s="16"/>
       <c r="F468" s="16"/>
-      <c r="H468" s="27"/>
-      <c r="I468" s="27"/>
-      <c r="J468" s="27"/>
-      <c r="K468" s="27"/>
-      <c r="L468" s="27"/>
-      <c r="M468" s="27"/>
-      <c r="N468" s="27"/>
-      <c r="O468" s="27"/>
+      <c r="H468" s="26"/>
+      <c r="I468" s="26"/>
+      <c r="J468" s="26"/>
+      <c r="K468" s="26"/>
+      <c r="L468" s="26"/>
+      <c r="M468" s="26"/>
+      <c r="N468" s="26"/>
+      <c r="O468" s="26"/>
     </row>
     <row r="469" spans="1:15">
       <c r="A469" s="13"/>
@@ -28587,14 +28585,14 @@
       <c r="D477" s="16"/>
       <c r="E477" s="16"/>
       <c r="F477" s="16"/>
-      <c r="H477" s="27"/>
-      <c r="I477" s="27"/>
-      <c r="J477" s="27"/>
-      <c r="K477" s="27"/>
-      <c r="L477" s="27"/>
-      <c r="M477" s="27"/>
-      <c r="N477" s="27"/>
-      <c r="O477" s="27"/>
+      <c r="H477" s="26"/>
+      <c r="I477" s="26"/>
+      <c r="J477" s="26"/>
+      <c r="K477" s="26"/>
+      <c r="L477" s="26"/>
+      <c r="M477" s="26"/>
+      <c r="N477" s="26"/>
+      <c r="O477" s="26"/>
     </row>
     <row r="478" spans="1:15">
       <c r="A478" s="13"/>
@@ -28603,14 +28601,14 @@
       <c r="D478" s="16"/>
       <c r="E478" s="16"/>
       <c r="F478" s="16"/>
-      <c r="H478" s="27"/>
-      <c r="I478" s="27"/>
-      <c r="J478" s="27"/>
-      <c r="K478" s="27"/>
-      <c r="L478" s="27"/>
-      <c r="M478" s="27"/>
-      <c r="N478" s="27"/>
-      <c r="O478" s="27"/>
+      <c r="H478" s="26"/>
+      <c r="I478" s="26"/>
+      <c r="J478" s="26"/>
+      <c r="K478" s="26"/>
+      <c r="L478" s="26"/>
+      <c r="M478" s="26"/>
+      <c r="N478" s="26"/>
+      <c r="O478" s="26"/>
     </row>
     <row r="479" spans="1:15">
       <c r="A479" s="13"/>
@@ -28691,14 +28689,14 @@
       <c r="D487" s="16"/>
       <c r="E487" s="16"/>
       <c r="F487" s="16"/>
-      <c r="H487" s="27"/>
-      <c r="I487" s="27"/>
-      <c r="J487" s="27"/>
-      <c r="K487" s="27"/>
-      <c r="L487" s="27"/>
-      <c r="M487" s="27"/>
-      <c r="N487" s="27"/>
-      <c r="O487" s="27"/>
+      <c r="H487" s="26"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="26"/>
+      <c r="M487" s="26"/>
+      <c r="N487" s="26"/>
+      <c r="O487" s="26"/>
     </row>
     <row r="488" spans="1:15">
       <c r="A488" s="13"/>
@@ -28707,14 +28705,14 @@
       <c r="D488" s="16"/>
       <c r="E488" s="16"/>
       <c r="F488" s="16"/>
-      <c r="H488" s="27"/>
-      <c r="I488" s="27"/>
-      <c r="J488" s="27"/>
-      <c r="K488" s="27"/>
-      <c r="L488" s="27"/>
-      <c r="M488" s="27"/>
-      <c r="N488" s="27"/>
-      <c r="O488" s="27"/>
+      <c r="H488" s="26"/>
+      <c r="I488" s="26"/>
+      <c r="J488" s="26"/>
+      <c r="K488" s="26"/>
+      <c r="L488" s="26"/>
+      <c r="M488" s="26"/>
+      <c r="N488" s="26"/>
+      <c r="O488" s="26"/>
     </row>
     <row r="489" spans="1:15">
       <c r="A489" s="13"/>
@@ -28795,14 +28793,14 @@
       <c r="D497" s="16"/>
       <c r="E497" s="16"/>
       <c r="F497" s="16"/>
-      <c r="H497" s="27"/>
-      <c r="I497" s="27"/>
-      <c r="J497" s="27"/>
-      <c r="K497" s="27"/>
-      <c r="L497" s="27"/>
-      <c r="M497" s="27"/>
-      <c r="N497" s="27"/>
-      <c r="O497" s="27"/>
+      <c r="H497" s="26"/>
+      <c r="I497" s="26"/>
+      <c r="J497" s="26"/>
+      <c r="K497" s="26"/>
+      <c r="L497" s="26"/>
+      <c r="M497" s="26"/>
+      <c r="N497" s="26"/>
+      <c r="O497" s="26"/>
     </row>
     <row r="498" spans="1:15">
       <c r="A498" s="13"/>
@@ -28811,14 +28809,14 @@
       <c r="D498" s="16"/>
       <c r="E498" s="16"/>
       <c r="F498" s="16"/>
-      <c r="H498" s="27"/>
-      <c r="I498" s="27"/>
-      <c r="J498" s="27"/>
-      <c r="K498" s="27"/>
-      <c r="L498" s="27"/>
-      <c r="M498" s="27"/>
-      <c r="N498" s="27"/>
-      <c r="O498" s="27"/>
+      <c r="H498" s="26"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="26"/>
+      <c r="K498" s="26"/>
+      <c r="L498" s="26"/>
+      <c r="M498" s="26"/>
+      <c r="N498" s="26"/>
+      <c r="O498" s="26"/>
     </row>
     <row r="499" spans="1:15">
       <c r="A499" s="13"/>
@@ -32924,24 +32922,24 @@
       <c r="F1011" s="26"/>
     </row>
     <row r="1012" spans="1:6">
-      <c r="A1012" s="27" t="s">
+      <c r="A1012" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1012" s="27"/>
-      <c r="C1012" s="27"/>
-      <c r="D1012" s="27"/>
-      <c r="E1012" s="27"/>
-      <c r="F1012" s="27"/>
+      <c r="B1012" s="26"/>
+      <c r="C1012" s="26"/>
+      <c r="D1012" s="26"/>
+      <c r="E1012" s="26"/>
+      <c r="F1012" s="26"/>
     </row>
     <row r="1013" spans="1:6">
-      <c r="A1013" s="27" t="s">
+      <c r="A1013" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1013" s="27"/>
-      <c r="C1013" s="27"/>
-      <c r="D1013" s="27"/>
-      <c r="E1013" s="27"/>
-      <c r="F1013" s="27"/>
+      <c r="B1013" s="26"/>
+      <c r="C1013" s="26"/>
+      <c r="D1013" s="26"/>
+      <c r="E1013" s="26"/>
+      <c r="F1013" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="162">
@@ -33137,57 +33135,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -33235,30 +33233,30 @@
       <c r="M4" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
